--- a/translation/xlsx/_meak_024.xlsx
+++ b/translation/xlsx/_meak_024.xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg6PezLEot5dqUExygVkJJyg7kmOg=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2506,7 +2511,7 @@
     <t xml:space="preserve"> Just let me have some time alone with Kei-chan.\"</t>
   </si>
   <si>
-    <t xml:space="preserve">...케이쨩과 단둘이 있었으면 해.\" </t>
+    <t xml:space="preserve">...케이쨩과 둘만의 시간을 줬으면 해.\" </t>
   </si>
   <si>
     <t>......케이와 단둘이 있게 해줬으면 좋겠어."</t>
@@ -6396,7 +6401,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -6474,13 +6482,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -6611,21 +6619,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6642,7 +6650,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -9551,7 +9559,7 @@
         <v>324</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E83" s="4"/>
@@ -9594,10 +9602,10 @@
         <v>329</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H84" s="11"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -10583,7 +10591,7 @@
         <v>441</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E113" s="4"/>
@@ -12248,7 +12256,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
-      <c r="M161" s="12"/>
+      <c r="M161" s="11"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -12611,7 +12619,7 @@
       <c r="C172" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="12" t="s">
         <v>674</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -12645,7 +12653,7 @@
       <c r="C173" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D173" s="13" t="s">
+      <c r="D173" s="12" t="s">
         <v>677</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -13993,7 +14001,7 @@
       <c r="C212" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="13" t="s">
         <v>831</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -23908,7 +23916,7 @@
         <v>1977</v>
       </c>
       <c r="C500" s="4"/>
-      <c r="D500" s="10" t="s">
+      <c r="D500" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E500" s="4"/>
@@ -25150,7 +25158,7 @@
       <c r="K536" s="8"/>
       <c r="L536" s="8"/>
       <c r="M536" s="8"/>
-      <c r="N536" s="12"/>
+      <c r="N536" s="11"/>
       <c r="O536" s="2"/>
       <c r="P536" s="2"/>
       <c r="Q536" s="2"/>
@@ -25171,7 +25179,7 @@
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
-      <c r="I537" s="12"/>
+      <c r="I537" s="11"/>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
@@ -30362,6 +30370,270 @@
       <c r="W736" s="2"/>
       <c r="X736" s="2"/>
     </row>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
